--- a/experiment result/128_0.3_40_zs0_kappa_lp.xlsx
+++ b/experiment result/128_0.3_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07512624181018382</v>
+        <v>0.01760802984700081</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08373227570932973</v>
+        <v>0.06405376984799688</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1386847670427123</v>
+        <v>0.05488111549654429</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07707545662228346</v>
+        <v>0.04158517529960309</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09895153087148109</v>
+        <v>0.02601338143311542</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1056070685744761</v>
+        <v>0.05536363865257461</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1072416458388467</v>
+        <v>0.05329898080985975</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1047415644626144</v>
+        <v>0.06145884748421036</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.109403071331375</v>
+        <v>0.06345743166368437</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1316486774757031</v>
+        <v>0.1542896529352345</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1092609610142648</v>
+        <v>0.0194588606476063</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1745212145434134</v>
+        <v>0.1195545888688022</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1214585710468177</v>
+        <v>0.0156008151456213</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08381099681586364</v>
+        <v>0.02460510764674783</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1107543481022343</v>
+        <v>0.04392594024134066</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1384445290289011</v>
+        <v>0.033015224029382</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1236533922128115</v>
+        <v>0.05605460739051903</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06965824064308195</v>
+        <v>0.01145657754647995</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1097741269022075</v>
+        <v>0.1003917833134761</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1342213576869218</v>
+        <v>0.05053402229800508</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0870068461871534</v>
+        <v>0.01721413510018777</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.09052213961972247</v>
+        <v>0.02076749304549324</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09317977310763984</v>
+        <v>0.05621677878467499</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05089101324166208</v>
+        <v>0.00410243983818365</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.07693630390629003</v>
+        <v>0.004890160748597499</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1015530170879664</v>
+        <v>0.03224472456918102</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1193735945449336</v>
+        <v>0.01154850299236958</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1210995828430662</v>
+        <v>0.08541484328630318</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07920757594659386</v>
+        <v>0.02811528847608794</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1009995614757629</v>
+        <v>0.0306401822835082</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04647341283155692</v>
+        <v>0.00422704876009213</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1573013431822901</v>
+        <v>0.07352283950416533</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1318441932382022</v>
+        <v>0.05415712456655038</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07579139504550773</v>
+        <v>0.04627126913104621</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1349128686718918</v>
+        <v>0.1453168961270349</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1359745236700212</v>
+        <v>0.07492278656316147</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08821501535574204</v>
+        <v>0.0159619408184168</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1304688229072568</v>
+        <v>0.04973472803468609</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08090589603872514</v>
+        <v>0.05513071752453121</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1035080037521555</v>
+        <v>0.09488304044606488</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1267917151671281</v>
+        <v>0.08243319036503556</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09143816056705192</v>
+        <v>0.0179932251965916</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09920524489243138</v>
+        <v>0.1010683233922199</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.102576019687608</v>
+        <v>0.04110990194628846</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1043782505928616</v>
+        <v>0.05812079803340949</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1144896433116287</v>
+        <v>0.02960105989688451</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1580893999969357</v>
+        <v>0.1748896351128872</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06976415222103453</v>
+        <v>0.02157171310828953</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1261600146404981</v>
+        <v>0.01793983233285389</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08025144587400936</v>
+        <v>0.03007558359035841</v>
       </c>
     </row>
   </sheetData>
